--- a/data/trans_orig/P21D6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9784DA-C2AE-4AC1-9786-9FCE0C1A1797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73BEB444-9AEA-4585-B69E-07A1A3CB45C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F0D1667-C8B5-4377-86E7-5AA2E7746512}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2AAC15B-9D37-4867-89C6-16F7D91CD728}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="154">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="155">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>94,38%</t>
   </si>
   <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>87,41%</t>
   </si>
   <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>90,13%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>5,17%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -143,19 +143,19 @@
     <t>3,01%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -164,25 +164,25 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>1,89%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,94 +194,97 @@
     <t>83,78%</t>
   </si>
   <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
   </si>
   <si>
     <t>87,28%</t>
   </si>
   <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>0,98%</t>
@@ -290,6 +293,9 @@
     <t>0,62%</t>
   </si>
   <si>
+    <t>1,49%</t>
+  </si>
+  <si>
     <t>Universitarios</t>
   </si>
   <si>
@@ -299,202 +305,199 @@
     <t>77,59%</t>
   </si>
   <si>
-    <t>86,84%</t>
+    <t>86,69%</t>
   </si>
   <si>
     <t>85,03%</t>
   </si>
   <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>83,86%</t>
   </si>
   <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>14,2%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,2%</t>
+    <t>1,82%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,85%</t>
+    <t>0,99%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>85,22%</t>
   </si>
   <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>86,85%</t>
   </si>
   <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>86,08%</t>
   </si>
   <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>3,15%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -909,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D3FBD6-DE39-4A8E-A0CC-03EC64A02B87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC916F5-5D8F-4486-8455-55ED220163B2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1449,7 +1452,7 @@
         <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -1458,13 +1461,13 @@
         <v>12731</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -1473,13 +1476,13 @@
         <v>18765</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1535,7 +1538,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1547,13 +1550,13 @@
         <v>268010</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>371</v>
@@ -1562,13 +1565,13 @@
         <v>288610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>638</v>
@@ -1577,13 +1580,13 @@
         <v>556621</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1598,13 +1601,13 @@
         <v>46046</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>63</v>
@@ -1613,13 +1616,13 @@
         <v>42976</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>104</v>
@@ -1628,13 +1631,13 @@
         <v>89022</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,13 +1652,13 @@
         <v>8529</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -1664,13 +1667,13 @@
         <v>7284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -1679,13 +1682,13 @@
         <v>15813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,13 +1703,13 @@
         <v>1746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1715,13 +1718,13 @@
         <v>560</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1730,13 +1733,13 @@
         <v>2306</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,13 +1807,13 @@
         <v>1287193</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>2037</v>
@@ -1819,13 +1822,13 @@
         <v>1456339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>3331</v>
@@ -1834,13 +1837,13 @@
         <v>2743532</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,13 +1858,13 @@
         <v>183888</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>239</v>
@@ -1870,13 +1873,13 @@
         <v>158503</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>361</v>
@@ -1885,13 +1888,13 @@
         <v>342391</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1909,13 @@
         <v>30585</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>57</v>
@@ -1921,10 +1924,10 @@
         <v>40486</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>141</v>
@@ -1936,13 +1939,13 @@
         <v>71071</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,13 +1960,13 @@
         <v>8856</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -1972,13 +1975,13 @@
         <v>21465</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -1987,13 +1990,13 @@
         <v>30320</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,7 +2052,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73BEB444-9AEA-4585-B69E-07A1A3CB45C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C745B23-B3DA-4E7C-8461-C9C6A346F0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2AAC15B-9D37-4867-89C6-16F7D91CD728}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{151B6249-8810-4259-93F9-C24CC8AA53BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC916F5-5D8F-4486-8455-55ED220163B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B089D02F-281D-4B61-8C15-981B3403D88E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C745B23-B3DA-4E7C-8461-C9C6A346F0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C61026-C48A-46BA-B2A1-26E1BA354C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{151B6249-8810-4259-93F9-C24CC8AA53BE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{462D3D3D-B774-4E06-9293-0A79EA9C698D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="154">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>94,38%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>87,41%</t>
   </si>
   <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>90,13%</t>
   </si>
   <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>5,17%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -143,19 +143,19 @@
     <t>3,01%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -164,25 +164,25 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>1,89%</t>
+    <t>2,27%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,310 +194,307 @@
     <t>83,78%</t>
   </si>
   <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>87,28%</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -912,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B089D02F-281D-4B61-8C15-981B3403D88E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD0D697-7FFE-4D4A-8373-47EA0199FD6F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1452,7 +1449,7 @@
         <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -1461,13 +1458,13 @@
         <v>12731</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -1476,13 +1473,13 @@
         <v>18765</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1538,7 +1535,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1550,13 +1547,13 @@
         <v>268010</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>371</v>
@@ -1565,13 +1562,13 @@
         <v>288610</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>638</v>
@@ -1580,13 +1577,13 @@
         <v>556621</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1601,13 +1598,13 @@
         <v>46046</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>63</v>
@@ -1616,13 +1613,13 @@
         <v>42976</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>104</v>
@@ -1631,13 +1628,13 @@
         <v>89022</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,13 +1649,13 @@
         <v>8529</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -1667,13 +1664,13 @@
         <v>7284</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -1682,13 +1679,13 @@
         <v>15813</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,13 +1700,13 @@
         <v>1746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1718,13 +1715,13 @@
         <v>560</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1733,13 +1730,13 @@
         <v>2306</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1807,13 +1804,13 @@
         <v>1287193</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>2037</v>
@@ -1822,13 +1819,13 @@
         <v>1456339</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>3331</v>
@@ -1837,13 +1834,13 @@
         <v>2743532</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,13 +1855,13 @@
         <v>183888</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>239</v>
@@ -1873,13 +1870,13 @@
         <v>158503</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>361</v>
@@ -1888,13 +1885,13 @@
         <v>342391</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,13 +1906,13 @@
         <v>30585</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>57</v>
@@ -1924,10 +1921,10 @@
         <v>40486</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>141</v>
@@ -1939,13 +1936,13 @@
         <v>71071</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,13 +1957,13 @@
         <v>8856</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -1975,13 +1972,13 @@
         <v>21465</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -1990,13 +1987,13 @@
         <v>30320</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,7 +2049,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C61026-C48A-46BA-B2A1-26E1BA354C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABD5D76B-5A44-4BC5-93C7-FCE8A26EB4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{462D3D3D-B774-4E06-9293-0A79EA9C698D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B1C72AB5-82BE-4A8F-B6F5-A62EA7BE4D17}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -74,58 +74,58 @@
     <t>94,38%</t>
   </si>
   <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -140,361 +140,373 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -909,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD0D697-7FFE-4D4A-8373-47EA0199FD6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EF652D-8D2E-4DBD-A340-F75B5B8A2231}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1030,7 +1042,7 @@
         <v>282</v>
       </c>
       <c r="D4" s="7">
-        <v>225723</v>
+        <v>217164</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1045,7 +1057,7 @@
         <v>549</v>
       </c>
       <c r="I4" s="7">
-        <v>326933</v>
+        <v>293583</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1060,7 +1072,7 @@
         <v>831</v>
       </c>
       <c r="N4" s="7">
-        <v>552655</v>
+        <v>510746</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1081,7 +1093,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>12366</v>
+        <v>11929</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1096,7 +1108,7 @@
         <v>51</v>
       </c>
       <c r="I5" s="7">
-        <v>27648</v>
+        <v>25165</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1111,7 +1123,7 @@
         <v>67</v>
       </c>
       <c r="N5" s="7">
-        <v>40014</v>
+        <v>37094</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1147,7 +1159,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="7">
-        <v>11273</v>
+        <v>10403</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1162,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>11273</v>
+        <v>10403</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1183,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1077</v>
+        <v>1004</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1198,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>8173</v>
+        <v>7477</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -1213,7 +1225,7 @@
         <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>9249</v>
+        <v>8481</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1234,7 +1246,7 @@
         <v>299</v>
       </c>
       <c r="D8" s="7">
-        <v>239166</v>
+        <v>230097</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -1249,7 +1261,7 @@
         <v>631</v>
       </c>
       <c r="I8" s="7">
-        <v>374026</v>
+        <v>336627</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -1264,7 +1276,7 @@
         <v>930</v>
       </c>
       <c r="N8" s="7">
-        <v>613191</v>
+        <v>566724</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -1287,7 +1299,7 @@
         <v>745</v>
       </c>
       <c r="D9" s="7">
-        <v>793460</v>
+        <v>770476</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1302,7 +1314,7 @@
         <v>1117</v>
       </c>
       <c r="I9" s="7">
-        <v>840796</v>
+        <v>822680</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1317,7 +1329,7 @@
         <v>1862</v>
       </c>
       <c r="N9" s="7">
-        <v>1634256</v>
+        <v>1593156</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1338,7 +1350,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="7">
-        <v>125476</v>
+        <v>318428</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1353,7 +1365,7 @@
         <v>125</v>
       </c>
       <c r="I10" s="7">
-        <v>87879</v>
+        <v>82268</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1368,7 +1380,7 @@
         <v>190</v>
       </c>
       <c r="N10" s="7">
-        <v>213355</v>
+        <v>400696</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1389,7 +1401,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="7">
-        <v>22056</v>
+        <v>21290</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -1404,7 +1416,7 @@
         <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>21930</v>
+        <v>20436</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -1419,7 +1431,7 @@
         <v>49</v>
       </c>
       <c r="N11" s="7">
-        <v>43986</v>
+        <v>41726</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -1440,46 +1452,46 @@
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>6033</v>
+        <v>5909</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
       </c>
       <c r="I12" s="7">
-        <v>12731</v>
+        <v>11929</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
       </c>
       <c r="N12" s="7">
-        <v>18765</v>
+        <v>17838</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1491,7 +1503,7 @@
         <v>833</v>
       </c>
       <c r="D13" s="7">
-        <v>947026</v>
+        <v>1116103</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -1506,7 +1518,7 @@
         <v>1291</v>
       </c>
       <c r="I13" s="7">
-        <v>963336</v>
+        <v>937313</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -1521,7 +1533,7 @@
         <v>2124</v>
       </c>
       <c r="N13" s="7">
-        <v>1910361</v>
+        <v>2053416</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -1535,7 +1547,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1544,46 +1556,46 @@
         <v>267</v>
       </c>
       <c r="D14" s="7">
-        <v>268010</v>
+        <v>254798</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>371</v>
       </c>
       <c r="I14" s="7">
-        <v>288610</v>
+        <v>264446</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>638</v>
       </c>
       <c r="N14" s="7">
-        <v>556621</v>
+        <v>519245</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1595,46 +1607,46 @@
         <v>41</v>
       </c>
       <c r="D15" s="7">
-        <v>46046</v>
+        <v>45773</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>63</v>
       </c>
       <c r="I15" s="7">
-        <v>42976</v>
+        <v>40297</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>104</v>
       </c>
       <c r="N15" s="7">
-        <v>89022</v>
+        <v>86070</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,46 +1658,46 @@
         <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>8529</v>
+        <v>7927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>7284</v>
+        <v>7030</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>15813</v>
+        <v>14957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,46 +1709,46 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>560</v>
+        <v>515</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>2306</v>
+        <v>2199</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,7 +1760,7 @@
         <v>318</v>
       </c>
       <c r="D18" s="7">
-        <v>324330</v>
+        <v>310183</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -1763,7 +1775,7 @@
         <v>443</v>
       </c>
       <c r="I18" s="7">
-        <v>339430</v>
+        <v>312287</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -1778,7 +1790,7 @@
         <v>761</v>
       </c>
       <c r="N18" s="7">
-        <v>663761</v>
+        <v>622471</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -1801,46 +1813,46 @@
         <v>1294</v>
       </c>
       <c r="D19" s="7">
-        <v>1287193</v>
+        <v>1242439</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>2037</v>
       </c>
       <c r="I19" s="7">
-        <v>1456339</v>
+        <v>1380709</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>3331</v>
       </c>
       <c r="N19" s="7">
-        <v>2743532</v>
+        <v>2623148</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,46 +1864,46 @@
         <v>122</v>
       </c>
       <c r="D20" s="7">
-        <v>183888</v>
+        <v>376130</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>239</v>
       </c>
       <c r="I20" s="7">
-        <v>158503</v>
+        <v>147729</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>361</v>
       </c>
       <c r="N20" s="7">
-        <v>342391</v>
+        <v>523860</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,46 +1915,46 @@
         <v>26</v>
       </c>
       <c r="D21" s="7">
-        <v>30585</v>
+        <v>29217</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>57</v>
       </c>
       <c r="I21" s="7">
-        <v>40486</v>
+        <v>37868</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>83</v>
       </c>
       <c r="N21" s="7">
-        <v>71071</v>
+        <v>67086</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,46 +1966,46 @@
         <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>8856</v>
+        <v>8597</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
       </c>
       <c r="I22" s="7">
-        <v>21465</v>
+        <v>19921</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
       </c>
       <c r="N22" s="7">
-        <v>30320</v>
+        <v>28518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,7 +2017,7 @@
         <v>1450</v>
       </c>
       <c r="D23" s="7">
-        <v>1510522</v>
+        <v>1656384</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -2020,7 +2032,7 @@
         <v>2365</v>
       </c>
       <c r="I23" s="7">
-        <v>1676792</v>
+        <v>1586227</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -2035,7 +2047,7 @@
         <v>3815</v>
       </c>
       <c r="N23" s="7">
-        <v>3187314</v>
+        <v>3242611</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -2049,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
